--- a/00_fixed_and_variable_areas.xlsx
+++ b/00_fixed_and_variable_areas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garci\Desktop\Test1\output_images\frequency_plot\fixed_variable_areas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garci\Documents\GitHub\Spray-concentration-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{727157B0-21AA-4F56-94B6-867F61E0E87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41F2353-BEA1-4320-8FD5-D6F8BE97E77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-3540" windowWidth="29040" windowHeight="15720" xr2:uid="{1321388B-4893-4C66-8CEC-F1312BA528B7}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,8 +497,8 @@
         <v>32408</v>
       </c>
       <c r="G2">
-        <f>F2/(F2+E2)</f>
-        <v>0.43102622758950898</v>
+        <f>E2/(F2+E2)</f>
+        <v>0.56897377241049107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -521,8 +521,8 @@
         <v>24083</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G37" si="0">F3/(F3+E3)</f>
-        <v>0.41366220649616103</v>
+        <f t="shared" ref="G3:G37" si="0">E3/(F3+E3)</f>
+        <v>0.58633779350383897</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.39090831337666782</v>
+        <v>0.60909168662333224</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.65450022325700075</v>
+        <v>0.34549977674299931</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.4964506151812843</v>
+        <v>0.5035493848187157</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.40311931189549949</v>
+        <v>0.59688068810450057</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -642,7 +642,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.25801541242507847</v>
+        <v>0.74198458757492147</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.2085104969439277</v>
+        <v>0.79148950305607224</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.25521483330361916</v>
+        <v>0.74478516669638084</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.25430124720179087</v>
+        <v>0.74569875279820919</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.20696706861293279</v>
+        <v>0.79303293138706721</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.21710024280263615</v>
+        <v>0.78289975719736382</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.38046815513472354</v>
+        <v>0.61953184486527646</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -810,7 +810,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.41964942653105386</v>
+        <v>0.58035057346894614</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.40926600944412228</v>
+        <v>0.59073399055587772</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>0.39235587792012055</v>
+        <v>0.60764412207987939</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>0.38240900630172009</v>
+        <v>0.61759099369827997</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -906,7 +906,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>0.4197438474202998</v>
+        <v>0.5802561525797002</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -930,7 +930,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0.35097756054210177</v>
+        <v>0.64902243945789828</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>0.3334587072161625</v>
+        <v>0.66654129278383756</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>0.34938044974759064</v>
+        <v>0.65061955025240936</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>0.35160536752322485</v>
+        <v>0.64839463247677509</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>0.35979206238128564</v>
+        <v>0.64020793761871442</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>0.36188384577842853</v>
+        <v>0.63811615422157153</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>0.32841410179707065</v>
+        <v>0.67158589820292935</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>0.3738259236067627</v>
+        <v>0.6261740763932373</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>0.31830827801639983</v>
+        <v>0.68169172198360017</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>0.31377824730526072</v>
+        <v>0.68622175269473928</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>0.4376514350066546</v>
+        <v>0.5623485649933454</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>0.37387911395472834</v>
+        <v>0.62612088604527172</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>0.36676323413220963</v>
+        <v>0.63323676586779032</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>0.56070640176600439</v>
+        <v>0.43929359823399561</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>0.45060593554196526</v>
+        <v>0.54939406445803474</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>0.431640625</v>
+        <v>0.568359375</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>0.36337425595238093</v>
+        <v>0.63662574404761907</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>0.36702006643308915</v>
+        <v>0.63297993356691085</v>
       </c>
     </row>
   </sheetData>
